--- a/src/main/resources/com/training/sample/data-check-rule.xlsx
+++ b/src/main/resources/com/training/sample/data-check-rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamori/VSCode/WorkSpace/rhpam-handson/rhpam-handson-sample-pj/src/main/resources/com/training/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272BECEA-4756-6448-99DA-4FE7B6CD16A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47840C7B-1E07-D448-8EAA-F925B340827E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>RuleSet</t>
   </si>
@@ -52,18 +52,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"B"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>modify($paper){ setPaperType($param)}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>com.training.sample</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -73,13 +61,6 @@
   </si>
   <si>
     <t>data-check</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名</t>
-    <rPh sb="0" eb="3">
-      <t>コウモク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -106,6 +87,52 @@
   </si>
   <si>
     <t>&lt;= 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定項目名</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック結果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>== null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paperId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paperType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>submitDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>not in ('A', 'B')</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modify( $paper ) {setDataCheck( $param )};</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>== ''</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -113,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -134,13 +161,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="メイリオ"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="メイリオ"/>
       <family val="2"/>
@@ -292,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -311,25 +331,19 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -338,23 +352,32 @@
     <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,18 +744,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="19" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="21.83203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="7" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="23.6640625" style="7" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="19.83203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
@@ -741,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -752,14 +775,14 @@
     </row>
     <row r="3" spans="1:4" ht="20" thickTop="1">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="20" outlineLevel="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -768,56 +791,126 @@
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19" customHeight="1" outlineLevel="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="60" outlineLevel="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20">
+      <c r="A7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20">
+      <c r="A8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20">
+      <c r="A9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="C9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20">
+      <c r="A10" s="20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20">
-      <c r="A7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20">
-      <c r="A8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D10" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20">
+      <c r="A11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20">
+      <c r="A12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>7</v>
+      <c r="D12" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="11" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/com/training/sample/data-check-rule.xlsx
+++ b/src/main/resources/com/training/sample/data-check-rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamori/VSCode/WorkSpace/rhpam-handson/rhpam-handson-sample-pj/src/main/resources/com/training/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47840C7B-1E07-D448-8EAA-F925B340827E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A38FB8BE-9929-814C-8BCF-A5B998E80884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="rule" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>RuleSet</t>
   </si>
@@ -133,6 +134,102 @@
   </si>
   <si>
     <t>== ''</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/* $param */</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請書タイプ が null</t>
+    <rPh sb="0" eb="3">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請書タイプ が "A","B"ではない</t>
+    <rPh sb="0" eb="3">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請者名 が null</t>
+    <rPh sb="0" eb="3">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請者名 が 空欄</t>
+    <rPh sb="0" eb="3">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クウラn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予算 が 空欄</t>
+    <rPh sb="0" eb="2">
+      <t>ヨサn</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クウラn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請者ID が null</t>
+    <rPh sb="0" eb="2">
+      <t>ヨサnクウラn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請者ID が 0以下</t>
+    <rPh sb="0" eb="2">
+      <t>ヨサnクウラn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予算 が 0以下</t>
+    <rPh sb="0" eb="2">
+      <t>ヨサnクウラn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請日 が null</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ビ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請日 が 空欄</t>
+    <rPh sb="0" eb="3">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイクウラn</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -209,12 +306,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="58"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -243,8 +334,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="58"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -308,11 +405,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -322,9 +456,6 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -337,47 +468,62 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="1" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,22 +890,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="19" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="7" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="19.83203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="6" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="19.83203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5" style="2"/>
+    <col min="5" max="5" width="35.83203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" outlineLevel="1" thickTop="1">
+    <row r="1" spans="1:5" ht="20" outlineLevel="1" thickTop="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,155 +915,230 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="20" thickBot="1">
+    <row r="2" spans="1:5" ht="20" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="20" thickTop="1">
+    <row r="3" spans="1:5" ht="20" thickTop="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="20" outlineLevel="1">
-      <c r="A4" s="16" t="s">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="20" outlineLevel="1">
+      <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="19" customHeight="1" outlineLevel="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="22" t="s">
+      <c r="E4" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" customHeight="1" outlineLevel="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4" ht="60" outlineLevel="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="9" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="60" outlineLevel="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20">
-      <c r="A7" s="15" t="s">
+      <c r="E6" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20">
+      <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20">
-      <c r="A8" s="20" t="s">
+      <c r="E7" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20">
+      <c r="A8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20">
+      <c r="A9" s="22"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11" t="b">
+      <c r="D9" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20">
-      <c r="A9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="E9" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20">
+      <c r="A10" s="22"/>
+      <c r="B10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20">
+      <c r="A11" s="22"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20">
+      <c r="A12" s="22"/>
+      <c r="B12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="11" t="b">
+      <c r="D12" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20">
-      <c r="A10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="11" t="b">
+      <c r="E12" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20">
+      <c r="A13" s="22"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20">
-      <c r="A11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="E13" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20">
+      <c r="A14" s="22"/>
+      <c r="B14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="11" t="b">
+      <c r="D14" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="20">
-      <c r="A12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="E14" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20">
+      <c r="A15" s="22"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20">
+      <c r="A16" s="22"/>
+      <c r="B16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="11" t="b">
+      <c r="D16" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20">
-      <c r="A13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="E16" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20">
+      <c r="A17" s="23"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="11" t="b">
+      <c r="D17" s="9" t="b">
         <v>0</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="1">
+  <mergeCells count="7">
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/src/main/resources/com/training/sample/data-check-rule.xlsx
+++ b/src/main/resources/com/training/sample/data-check-rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamori/VSCode/WorkSpace/rhpam-handson/rhpam-handson-sample-pj/src/main/resources/com/training/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A38FB8BE-9929-814C-8BCF-A5B998E80884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D12B33-DBCA-AA48-9445-DCC07E127740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="rule" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -893,7 +892,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="19" outlineLevelRow="1" outlineLevelCol="1"/>

--- a/src/main/resources/com/training/sample/data-check-rule.xlsx
+++ b/src/main/resources/com/training/sample/data-check-rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamori/VSCode/WorkSpace/rhpam-handson/rhpam-handson-sample-pj/src/main/resources/com/training/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D12B33-DBCA-AA48-9445-DCC07E127740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E25F98-CBB8-E941-9B7B-91518AF0C104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>RuleSet</t>
   </si>
@@ -218,16 +218,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t xml:space="preserve">ビ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>申請日 が 空欄</t>
-    <rPh sb="0" eb="3">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイクウラn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -340,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -404,48 +394,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -497,31 +450,19 @@
     <xf numFmtId="1" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -889,15 +830,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="19" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="30" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" style="6" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="19.83203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -947,10 +888,10 @@
     </row>
     <row r="5" spans="1:5" ht="19" customHeight="1" outlineLevel="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
@@ -987,10 +928,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="20">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -1005,7 +946,7 @@
     </row>
     <row r="9" spans="1:5" ht="20">
       <c r="A9" s="22"/>
-      <c r="B9" s="25"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
@@ -1018,7 +959,7 @@
     </row>
     <row r="10" spans="1:5" ht="20">
       <c r="A10" s="22"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -1033,7 +974,7 @@
     </row>
     <row r="11" spans="1:5" ht="20">
       <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="17" t="s">
         <v>13</v>
       </c>
@@ -1046,7 +987,7 @@
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" s="22"/>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -1061,7 +1002,7 @@
     </row>
     <row r="13" spans="1:5" ht="20">
       <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="17" t="s">
         <v>23</v>
       </c>
@@ -1074,7 +1015,7 @@
     </row>
     <row r="14" spans="1:5" ht="20">
       <c r="A14" s="22"/>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -1089,7 +1030,7 @@
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="17" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +1043,7 @@
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" s="22"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -1115,29 +1056,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20">
-      <c r="A17" s="23"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A8:A16"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
